--- a/data/raw/election/voters-age-sex-education/2023/Karabük.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Karabük.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="35">
   <si>
     <t>Karabük</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>Yenice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -651,7 +658,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -670,6 +677,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -999,10 +1015,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,48 +1037,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2068,8 +2084,8 @@
       <c r="D30" s="5">
         <v>596</v>
       </c>
-      <c r="E30" s="5">
-        <v>2.8359999999999999</v>
+      <c r="E30" s="7">
+        <v>2836</v>
       </c>
       <c r="F30" s="5">
         <v>659</v>
@@ -2077,8 +2093,8 @@
       <c r="G30" s="5">
         <v>742</v>
       </c>
-      <c r="H30" s="5">
-        <v>1.028</v>
+      <c r="H30" s="7">
+        <v>1028</v>
       </c>
       <c r="I30" s="5">
         <v>559</v>
@@ -2092,15 +2108,15 @@
       <c r="L30" s="5">
         <v>24</v>
       </c>
-      <c r="M30" s="5">
-        <v>7.2779999999999996</v>
+      <c r="M30" s="7">
+        <v>7278</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3106,20 +3122,20 @@
       <c r="D56" s="5">
         <v>601</v>
       </c>
-      <c r="E56" s="5">
-        <v>3.1030000000000002</v>
+      <c r="E56" s="7">
+        <v>3103</v>
       </c>
       <c r="F56" s="5">
         <v>914</v>
       </c>
-      <c r="G56" s="5">
-        <v>1.411</v>
-      </c>
-      <c r="H56" s="5">
-        <v>2.3130000000000002</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1.2190000000000001</v>
+      <c r="G56" s="7">
+        <v>1411</v>
+      </c>
+      <c r="H56" s="7">
+        <v>2313</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1219</v>
       </c>
       <c r="J56" s="5">
         <v>85</v>
@@ -3130,15 +3146,15 @@
       <c r="L56" s="5">
         <v>31</v>
       </c>
-      <c r="M56" s="5">
-        <v>10.403</v>
+      <c r="M56" s="7">
+        <v>10403</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3195,11 +3211,11 @@
       <c r="G58" s="4">
         <v>824</v>
       </c>
-      <c r="H58" s="4">
-        <v>4.2789999999999999</v>
-      </c>
-      <c r="I58" s="4">
-        <v>1.238</v>
+      <c r="H58" s="8">
+        <v>4279</v>
+      </c>
+      <c r="I58" s="8">
+        <v>1238</v>
       </c>
       <c r="J58" s="4">
         <v>6</v>
@@ -3210,8 +3226,8 @@
       <c r="L58" s="4">
         <v>44</v>
       </c>
-      <c r="M58" s="5">
-        <v>6.4370000000000003</v>
+      <c r="M58" s="7">
+        <v>6437</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3234,11 +3250,11 @@
       <c r="G59" s="4">
         <v>718</v>
       </c>
-      <c r="H59" s="4">
-        <v>3.7210000000000001</v>
-      </c>
-      <c r="I59" s="4">
-        <v>1.4750000000000001</v>
+      <c r="H59" s="8">
+        <v>3721</v>
+      </c>
+      <c r="I59" s="8">
+        <v>1475</v>
       </c>
       <c r="J59" s="4">
         <v>15</v>
@@ -3249,8 +3265,8 @@
       <c r="L59" s="4">
         <v>17</v>
       </c>
-      <c r="M59" s="5">
-        <v>5.9930000000000003</v>
+      <c r="M59" s="7">
+        <v>5993</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3275,11 +3291,11 @@
       <c r="G60" s="4">
         <v>556</v>
       </c>
-      <c r="H60" s="4">
-        <v>1.619</v>
-      </c>
-      <c r="I60" s="4">
-        <v>2.391</v>
+      <c r="H60" s="8">
+        <v>1619</v>
+      </c>
+      <c r="I60" s="8">
+        <v>2391</v>
       </c>
       <c r="J60" s="4">
         <v>202</v>
@@ -3290,8 +3306,8 @@
       <c r="L60" s="4">
         <v>30</v>
       </c>
-      <c r="M60" s="5">
-        <v>4.8499999999999996</v>
+      <c r="M60" s="7">
+        <v>4850</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3314,11 +3330,11 @@
       <c r="G61" s="4">
         <v>567</v>
       </c>
-      <c r="H61" s="4">
-        <v>1.034</v>
-      </c>
-      <c r="I61" s="4">
-        <v>2.3050000000000002</v>
+      <c r="H61" s="8">
+        <v>1034</v>
+      </c>
+      <c r="I61" s="8">
+        <v>2305</v>
       </c>
       <c r="J61" s="4">
         <v>234</v>
@@ -3329,8 +3345,8 @@
       <c r="L61" s="4">
         <v>20</v>
       </c>
-      <c r="M61" s="5">
-        <v>4.2430000000000003</v>
+      <c r="M61" s="7">
+        <v>4243</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3355,11 +3371,11 @@
       <c r="G62" s="4">
         <v>322</v>
       </c>
-      <c r="H62" s="4">
-        <v>1.363</v>
-      </c>
-      <c r="I62" s="4">
-        <v>1.7350000000000001</v>
+      <c r="H62" s="8">
+        <v>1363</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1735</v>
       </c>
       <c r="J62" s="4">
         <v>208</v>
@@ -3370,8 +3386,8 @@
       <c r="L62" s="4">
         <v>16</v>
       </c>
-      <c r="M62" s="5">
-        <v>4.101</v>
+      <c r="M62" s="7">
+        <v>4101</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3394,11 +3410,11 @@
       <c r="G63" s="4">
         <v>309</v>
       </c>
-      <c r="H63" s="4">
-        <v>1.028</v>
-      </c>
-      <c r="I63" s="4">
-        <v>1.7</v>
+      <c r="H63" s="8">
+        <v>1028</v>
+      </c>
+      <c r="I63" s="8">
+        <v>1700</v>
       </c>
       <c r="J63" s="4">
         <v>213</v>
@@ -3409,8 +3425,8 @@
       <c r="L63" s="4">
         <v>25</v>
       </c>
-      <c r="M63" s="5">
-        <v>3.8149999999999999</v>
+      <c r="M63" s="7">
+        <v>3815</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3435,11 +3451,11 @@
       <c r="G64" s="4">
         <v>329</v>
       </c>
-      <c r="H64" s="4">
-        <v>1.653</v>
-      </c>
-      <c r="I64" s="4">
-        <v>1.4119999999999999</v>
+      <c r="H64" s="8">
+        <v>1653</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1412</v>
       </c>
       <c r="J64" s="4">
         <v>178</v>
@@ -3450,8 +3466,8 @@
       <c r="L64" s="4">
         <v>12</v>
       </c>
-      <c r="M64" s="5">
-        <v>4.3</v>
+      <c r="M64" s="7">
+        <v>4300</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3474,11 +3490,11 @@
       <c r="G65" s="4">
         <v>486</v>
       </c>
-      <c r="H65" s="4">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="I65" s="4">
-        <v>1.2529999999999999</v>
+      <c r="H65" s="8">
+        <v>1233</v>
+      </c>
+      <c r="I65" s="8">
+        <v>1253</v>
       </c>
       <c r="J65" s="4">
         <v>170</v>
@@ -3489,8 +3505,8 @@
       <c r="L65" s="4">
         <v>15</v>
       </c>
-      <c r="M65" s="5">
-        <v>4.2240000000000002</v>
+      <c r="M65" s="7">
+        <v>4224</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3515,8 +3531,8 @@
       <c r="G66" s="4">
         <v>711</v>
       </c>
-      <c r="H66" s="4">
-        <v>1.7629999999999999</v>
+      <c r="H66" s="8">
+        <v>1763</v>
       </c>
       <c r="I66" s="4">
         <v>971</v>
@@ -3530,8 +3546,8 @@
       <c r="L66" s="4">
         <v>9</v>
       </c>
-      <c r="M66" s="5">
-        <v>4.508</v>
+      <c r="M66" s="7">
+        <v>4508</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3554,8 +3570,8 @@
       <c r="G67" s="4">
         <v>847</v>
       </c>
-      <c r="H67" s="4">
-        <v>1.42</v>
+      <c r="H67" s="8">
+        <v>1420</v>
       </c>
       <c r="I67" s="4">
         <v>887</v>
@@ -3569,8 +3585,8 @@
       <c r="L67" s="4">
         <v>14</v>
       </c>
-      <c r="M67" s="5">
-        <v>4.7320000000000002</v>
+      <c r="M67" s="7">
+        <v>4732</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3595,8 +3611,8 @@
       <c r="G68" s="4">
         <v>655</v>
       </c>
-      <c r="H68" s="4">
-        <v>1.7310000000000001</v>
+      <c r="H68" s="8">
+        <v>1731</v>
       </c>
       <c r="I68" s="4">
         <v>923</v>
@@ -3610,8 +3626,8 @@
       <c r="L68" s="4">
         <v>20</v>
       </c>
-      <c r="M68" s="5">
-        <v>4.4690000000000003</v>
+      <c r="M68" s="7">
+        <v>4469</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3625,8 +3641,8 @@
       <c r="D69" s="4">
         <v>19</v>
       </c>
-      <c r="E69" s="4">
-        <v>1.115</v>
+      <c r="E69" s="8">
+        <v>1115</v>
       </c>
       <c r="F69" s="4">
         <v>934</v>
@@ -3634,8 +3650,8 @@
       <c r="G69" s="4">
         <v>835</v>
       </c>
-      <c r="H69" s="4">
-        <v>1.1259999999999999</v>
+      <c r="H69" s="8">
+        <v>1126</v>
       </c>
       <c r="I69" s="4">
         <v>637</v>
@@ -3649,8 +3665,8 @@
       <c r="L69" s="4">
         <v>25</v>
       </c>
-      <c r="M69" s="5">
-        <v>4.7869999999999999</v>
+      <c r="M69" s="7">
+        <v>4787</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3675,8 +3691,8 @@
       <c r="G70" s="4">
         <v>866</v>
       </c>
-      <c r="H70" s="4">
-        <v>1.234</v>
+      <c r="H70" s="8">
+        <v>1234</v>
       </c>
       <c r="I70" s="4">
         <v>838</v>
@@ -3690,8 +3706,8 @@
       <c r="L70" s="4">
         <v>13</v>
       </c>
-      <c r="M70" s="5">
-        <v>4.3550000000000004</v>
+      <c r="M70" s="7">
+        <v>4355</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3705,8 +3721,8 @@
       <c r="D71" s="4">
         <v>29</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.4390000000000001</v>
+      <c r="E71" s="8">
+        <v>1439</v>
       </c>
       <c r="F71" s="4">
         <v>919</v>
@@ -3729,8 +3745,8 @@
       <c r="L71" s="4">
         <v>26</v>
       </c>
-      <c r="M71" s="5">
-        <v>4.3390000000000004</v>
+      <c r="M71" s="7">
+        <v>4339</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3770,8 +3786,8 @@
       <c r="L72" s="4">
         <v>19</v>
       </c>
-      <c r="M72" s="5">
-        <v>3.649</v>
+      <c r="M72" s="7">
+        <v>3649</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3785,8 +3801,8 @@
       <c r="D73" s="4">
         <v>71</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.7669999999999999</v>
+      <c r="E73" s="8">
+        <v>1767</v>
       </c>
       <c r="F73" s="4">
         <v>715</v>
@@ -3809,8 +3825,8 @@
       <c r="L73" s="4">
         <v>21</v>
       </c>
-      <c r="M73" s="5">
-        <v>3.8439999999999999</v>
+      <c r="M73" s="7">
+        <v>3844</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3850,8 +3866,8 @@
       <c r="L74" s="4">
         <v>10</v>
       </c>
-      <c r="M74" s="5">
-        <v>3.052</v>
+      <c r="M74" s="7">
+        <v>3052</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3865,8 +3881,8 @@
       <c r="D75" s="4">
         <v>178</v>
       </c>
-      <c r="E75" s="4">
-        <v>2.0019999999999998</v>
+      <c r="E75" s="8">
+        <v>2002</v>
       </c>
       <c r="F75" s="4">
         <v>326</v>
@@ -3889,8 +3905,8 @@
       <c r="L75" s="4">
         <v>12</v>
       </c>
-      <c r="M75" s="5">
-        <v>3.3980000000000001</v>
+      <c r="M75" s="7">
+        <v>3398</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3906,8 +3922,8 @@
       <c r="D76" s="4">
         <v>21</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.218</v>
+      <c r="E76" s="8">
+        <v>1218</v>
       </c>
       <c r="F76" s="4">
         <v>130</v>
@@ -3930,8 +3946,8 @@
       <c r="L76" s="4">
         <v>9</v>
       </c>
-      <c r="M76" s="5">
-        <v>2.4500000000000002</v>
+      <c r="M76" s="7">
+        <v>2450</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3945,8 +3961,8 @@
       <c r="D77" s="4">
         <v>329</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.802</v>
+      <c r="E77" s="8">
+        <v>1802</v>
       </c>
       <c r="F77" s="4">
         <v>104</v>
@@ -3969,8 +3985,8 @@
       <c r="L77" s="4">
         <v>13</v>
       </c>
-      <c r="M77" s="5">
-        <v>2.8439999999999999</v>
+      <c r="M77" s="7">
+        <v>2844</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3986,8 +4002,8 @@
       <c r="D78" s="4">
         <v>41</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.1970000000000001</v>
+      <c r="E78" s="8">
+        <v>1197</v>
       </c>
       <c r="F78" s="4">
         <v>25</v>
@@ -4010,8 +4026,8 @@
       <c r="L78" s="4">
         <v>6</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.84</v>
+      <c r="M78" s="7">
+        <v>1840</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4025,8 +4041,8 @@
       <c r="D79" s="4">
         <v>383</v>
       </c>
-      <c r="E79" s="4">
-        <v>1.1930000000000001</v>
+      <c r="E79" s="8">
+        <v>1193</v>
       </c>
       <c r="F79" s="4">
         <v>28</v>
@@ -4049,8 +4065,8 @@
       <c r="L79" s="4">
         <v>11</v>
       </c>
-      <c r="M79" s="5">
-        <v>2.169</v>
+      <c r="M79" s="7">
+        <v>2169</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4066,8 +4082,8 @@
       <c r="D80" s="4">
         <v>208</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.347</v>
+      <c r="E80" s="8">
+        <v>1347</v>
       </c>
       <c r="F80" s="4">
         <v>25</v>
@@ -4090,8 +4106,8 @@
       <c r="L80" s="4">
         <v>12</v>
       </c>
-      <c r="M80" s="5">
-        <v>2.0960000000000001</v>
+      <c r="M80" s="7">
+        <v>2096</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4099,14 +4115,14 @@
       <c r="B81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="4">
-        <v>1.175</v>
+      <c r="C81" s="8">
+        <v>1175</v>
       </c>
       <c r="D81" s="4">
         <v>779</v>
       </c>
-      <c r="E81" s="4">
-        <v>1.161</v>
+      <c r="E81" s="8">
+        <v>1161</v>
       </c>
       <c r="F81" s="4">
         <v>13</v>
@@ -4129,8 +4145,8 @@
       <c r="L81" s="4">
         <v>18</v>
       </c>
-      <c r="M81" s="5">
-        <v>3.2559999999999998</v>
+      <c r="M81" s="7">
+        <v>3256</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4138,29 +4154,29 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>2.2429999999999999</v>
-      </c>
-      <c r="D82" s="5">
-        <v>2.2450000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>17.940999999999999</v>
-      </c>
-      <c r="F82" s="5">
-        <v>9.3350000000000009</v>
-      </c>
-      <c r="G82" s="5">
-        <v>11.8</v>
-      </c>
-      <c r="H82" s="5">
-        <v>27.541</v>
-      </c>
-      <c r="I82" s="5">
-        <v>19.936</v>
-      </c>
-      <c r="J82" s="5">
-        <v>1.9330000000000001</v>
+      <c r="C82" s="7">
+        <v>2243</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2245</v>
+      </c>
+      <c r="E82" s="7">
+        <v>17941</v>
+      </c>
+      <c r="F82" s="7">
+        <v>9335</v>
+      </c>
+      <c r="G82" s="7">
+        <v>11800</v>
+      </c>
+      <c r="H82" s="7">
+        <v>27541</v>
+      </c>
+      <c r="I82" s="7">
+        <v>19936</v>
+      </c>
+      <c r="J82" s="7">
+        <v>1933</v>
       </c>
       <c r="K82" s="5">
         <v>360</v>
@@ -4168,15 +4184,15 @@
       <c r="L82" s="5">
         <v>417</v>
       </c>
-      <c r="M82" s="5">
-        <v>93.751000000000005</v>
+      <c r="M82" s="7">
+        <v>93751</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4242,8 +4258,8 @@
       <c r="J84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>15</v>
+      <c r="K84" s="4">
+        <v>0</v>
       </c>
       <c r="L84" s="4">
         <v>1</v>
@@ -4281,8 +4297,8 @@
       <c r="J85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>15</v>
+      <c r="K85" s="4">
+        <v>0</v>
       </c>
       <c r="L85" s="4" t="s">
         <v>15</v>
@@ -4322,8 +4338,8 @@
       <c r="J86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K86" s="4" t="s">
-        <v>15</v>
+      <c r="K86" s="4">
+        <v>0</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>15</v>
@@ -4361,8 +4377,8 @@
       <c r="J87" s="4">
         <v>2</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>15</v>
+      <c r="K87" s="4">
+        <v>0</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>15</v>
@@ -4402,8 +4418,8 @@
       <c r="J88" s="4">
         <v>2</v>
       </c>
-      <c r="K88" s="4" t="s">
-        <v>15</v>
+      <c r="K88" s="4">
+        <v>0</v>
       </c>
       <c r="L88" s="4">
         <v>1</v>
@@ -4441,8 +4457,8 @@
       <c r="J89" s="4">
         <v>4</v>
       </c>
-      <c r="K89" s="4" t="s">
-        <v>15</v>
+      <c r="K89" s="4">
+        <v>0</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>15</v>
@@ -4482,8 +4498,8 @@
       <c r="J90" s="4">
         <v>1</v>
       </c>
-      <c r="K90" s="4" t="s">
-        <v>15</v>
+      <c r="K90" s="4">
+        <v>0</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>15</v>
@@ -4521,8 +4537,8 @@
       <c r="J91" s="4">
         <v>1</v>
       </c>
-      <c r="K91" s="4" t="s">
-        <v>15</v>
+      <c r="K91" s="4">
+        <v>0</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>15</v>
@@ -4562,8 +4578,8 @@
       <c r="J92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K92" s="4" t="s">
-        <v>15</v>
+      <c r="K92" s="4">
+        <v>0</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>15</v>
@@ -4601,8 +4617,8 @@
       <c r="J93" s="4">
         <v>1</v>
       </c>
-      <c r="K93" s="4" t="s">
-        <v>15</v>
+      <c r="K93" s="4">
+        <v>0</v>
       </c>
       <c r="L93" s="4">
         <v>1</v>
@@ -4642,8 +4658,8 @@
       <c r="J94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>15</v>
+      <c r="K94" s="4">
+        <v>0</v>
       </c>
       <c r="L94" s="4" t="s">
         <v>15</v>
@@ -4681,8 +4697,8 @@
       <c r="J95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K95" s="4" t="s">
-        <v>15</v>
+      <c r="K95" s="4">
+        <v>0</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>15</v>
@@ -4722,8 +4738,8 @@
       <c r="J96" s="4">
         <v>2</v>
       </c>
-      <c r="K96" s="4" t="s">
-        <v>15</v>
+      <c r="K96" s="4">
+        <v>0</v>
       </c>
       <c r="L96" s="4">
         <v>2</v>
@@ -4761,8 +4777,8 @@
       <c r="J97" s="4">
         <v>1</v>
       </c>
-      <c r="K97" s="4" t="s">
-        <v>15</v>
+      <c r="K97" s="4">
+        <v>0</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>15</v>
@@ -4802,8 +4818,8 @@
       <c r="J98" s="4">
         <v>1</v>
       </c>
-      <c r="K98" s="4" t="s">
-        <v>15</v>
+      <c r="K98" s="4">
+        <v>0</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>15</v>
@@ -4841,8 +4857,8 @@
       <c r="J99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>15</v>
+      <c r="K99" s="4">
+        <v>0</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>15</v>
@@ -4882,8 +4898,8 @@
       <c r="J100" s="4">
         <v>2</v>
       </c>
-      <c r="K100" s="4" t="s">
-        <v>15</v>
+      <c r="K100" s="4">
+        <v>0</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>15</v>
@@ -4921,8 +4937,8 @@
       <c r="J101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="4" t="s">
-        <v>15</v>
+      <c r="K101" s="4">
+        <v>0</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>15</v>
@@ -4962,8 +4978,8 @@
       <c r="J102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K102" s="4" t="s">
-        <v>15</v>
+      <c r="K102" s="4">
+        <v>0</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>15</v>
@@ -5001,8 +5017,8 @@
       <c r="J103" s="4">
         <v>1</v>
       </c>
-      <c r="K103" s="4" t="s">
-        <v>15</v>
+      <c r="K103" s="4">
+        <v>0</v>
       </c>
       <c r="L103" s="4">
         <v>1</v>
@@ -5042,8 +5058,8 @@
       <c r="J104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K104" s="4" t="s">
-        <v>15</v>
+      <c r="K104" s="4">
+        <v>0</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>15</v>
@@ -5081,8 +5097,8 @@
       <c r="J105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>15</v>
+      <c r="K105" s="4">
+        <v>0</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>15</v>
@@ -5122,8 +5138,8 @@
       <c r="J106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K106" s="4" t="s">
-        <v>15</v>
+      <c r="K106" s="4">
+        <v>0</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>15</v>
@@ -5161,8 +5177,8 @@
       <c r="J107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>15</v>
+      <c r="K107" s="4">
+        <v>0</v>
       </c>
       <c r="L107" s="4">
         <v>1</v>
@@ -5182,8 +5198,8 @@
       <c r="D108" s="5">
         <v>238</v>
       </c>
-      <c r="E108" s="5">
-        <v>1.2070000000000001</v>
+      <c r="E108" s="7">
+        <v>1207</v>
       </c>
       <c r="F108" s="5">
         <v>266</v>
@@ -5200,21 +5216,21 @@
       <c r="J108" s="5">
         <v>18</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="4">
         <v>0</v>
       </c>
       <c r="L108" s="5">
         <v>7</v>
       </c>
-      <c r="M108" s="5">
-        <v>3.347</v>
+      <c r="M108" s="7">
+        <v>3347</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5271,8 +5287,8 @@
       <c r="G110" s="4">
         <v>341</v>
       </c>
-      <c r="H110" s="4">
-        <v>2.3199999999999998</v>
+      <c r="H110" s="8">
+        <v>2320</v>
       </c>
       <c r="I110" s="4">
         <v>959</v>
@@ -5286,8 +5302,8 @@
       <c r="L110" s="4">
         <v>24</v>
       </c>
-      <c r="M110" s="5">
-        <v>3.6560000000000001</v>
+      <c r="M110" s="7">
+        <v>3656</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5310,8 +5326,8 @@
       <c r="G111" s="4">
         <v>301</v>
       </c>
-      <c r="H111" s="4">
-        <v>1.675</v>
+      <c r="H111" s="8">
+        <v>1675</v>
       </c>
       <c r="I111" s="4">
         <v>585</v>
@@ -5325,8 +5341,8 @@
       <c r="L111" s="4">
         <v>4</v>
       </c>
-      <c r="M111" s="5">
-        <v>2.5790000000000002</v>
+      <c r="M111" s="7">
+        <v>2579</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5354,8 +5370,8 @@
       <c r="H112" s="4">
         <v>847</v>
       </c>
-      <c r="I112" s="4">
-        <v>1.31</v>
+      <c r="I112" s="8">
+        <v>1310</v>
       </c>
       <c r="J112" s="4">
         <v>101</v>
@@ -5366,8 +5382,8 @@
       <c r="L112" s="4">
         <v>11</v>
       </c>
-      <c r="M112" s="5">
-        <v>2.4649999999999999</v>
+      <c r="M112" s="7">
+        <v>2465</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5393,8 +5409,8 @@
       <c r="H113" s="4">
         <v>362</v>
       </c>
-      <c r="I113" s="4">
-        <v>1.1359999999999999</v>
+      <c r="I113" s="8">
+        <v>1136</v>
       </c>
       <c r="J113" s="4">
         <v>112</v>
@@ -5405,8 +5421,8 @@
       <c r="L113" s="4">
         <v>8</v>
       </c>
-      <c r="M113" s="5">
-        <v>1.806</v>
+      <c r="M113" s="7">
+        <v>1806</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5446,8 +5462,8 @@
       <c r="L114" s="4">
         <v>4</v>
       </c>
-      <c r="M114" s="5">
-        <v>1.907</v>
+      <c r="M114" s="7">
+        <v>1907</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5473,8 +5489,8 @@
       <c r="H115" s="4">
         <v>428</v>
       </c>
-      <c r="I115" s="4">
-        <v>1.091</v>
+      <c r="I115" s="8">
+        <v>1091</v>
       </c>
       <c r="J115" s="4">
         <v>185</v>
@@ -5485,8 +5501,8 @@
       <c r="L115" s="4">
         <v>11</v>
       </c>
-      <c r="M115" s="5">
-        <v>2.0459999999999998</v>
+      <c r="M115" s="7">
+        <v>2046</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5526,8 +5542,8 @@
       <c r="L116" s="4">
         <v>4</v>
       </c>
-      <c r="M116" s="5">
-        <v>2.2610000000000001</v>
+      <c r="M116" s="7">
+        <v>2261</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5565,8 +5581,8 @@
       <c r="L117" s="4">
         <v>11</v>
       </c>
-      <c r="M117" s="5">
-        <v>2.4369999999999998</v>
+      <c r="M117" s="7">
+        <v>2437</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5606,8 +5622,8 @@
       <c r="L118" s="4">
         <v>5</v>
       </c>
-      <c r="M118" s="5">
-        <v>2.4020000000000001</v>
+      <c r="M118" s="7">
+        <v>2402</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5645,8 +5661,8 @@
       <c r="L119" s="4">
         <v>11</v>
       </c>
-      <c r="M119" s="5">
-        <v>2.5209999999999999</v>
+      <c r="M119" s="7">
+        <v>2521</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5686,8 +5702,8 @@
       <c r="L120" s="4">
         <v>9</v>
       </c>
-      <c r="M120" s="5">
-        <v>2.2280000000000002</v>
+      <c r="M120" s="7">
+        <v>2228</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5725,8 +5741,8 @@
       <c r="L121" s="4">
         <v>10</v>
       </c>
-      <c r="M121" s="5">
-        <v>2.4079999999999999</v>
+      <c r="M121" s="7">
+        <v>2408</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5766,8 +5782,8 @@
       <c r="L122" s="4">
         <v>10</v>
       </c>
-      <c r="M122" s="5">
-        <v>2.1579999999999999</v>
+      <c r="M122" s="7">
+        <v>2158</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5805,8 +5821,8 @@
       <c r="L123" s="4">
         <v>7</v>
       </c>
-      <c r="M123" s="5">
-        <v>2.2669999999999999</v>
+      <c r="M123" s="7">
+        <v>2267</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5846,8 +5862,8 @@
       <c r="L124" s="4">
         <v>13</v>
       </c>
-      <c r="M124" s="5">
-        <v>1.9530000000000001</v>
+      <c r="M124" s="7">
+        <v>1953</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5885,8 +5901,8 @@
       <c r="L125" s="4">
         <v>9</v>
       </c>
-      <c r="M125" s="5">
-        <v>2.1179999999999999</v>
+      <c r="M125" s="7">
+        <v>2118</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5926,8 +5942,8 @@
       <c r="L126" s="4">
         <v>7</v>
       </c>
-      <c r="M126" s="5">
-        <v>1.8320000000000001</v>
+      <c r="M126" s="7">
+        <v>1832</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5941,8 +5957,8 @@
       <c r="D127" s="4">
         <v>84</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.1659999999999999</v>
+      <c r="E127" s="8">
+        <v>1166</v>
       </c>
       <c r="F127" s="4">
         <v>141</v>
@@ -5965,8 +5981,8 @@
       <c r="L127" s="4">
         <v>7</v>
       </c>
-      <c r="M127" s="5">
-        <v>1.9930000000000001</v>
+      <c r="M127" s="7">
+        <v>1993</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6006,8 +6022,8 @@
       <c r="L128" s="4">
         <v>11</v>
       </c>
-      <c r="M128" s="5">
-        <v>1.68</v>
+      <c r="M128" s="7">
+        <v>1680</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6021,8 +6037,8 @@
       <c r="D129" s="4">
         <v>209</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.125</v>
+      <c r="E129" s="8">
+        <v>1125</v>
       </c>
       <c r="F129" s="4">
         <v>43</v>
@@ -6045,8 +6061,8 @@
       <c r="L129" s="4">
         <v>9</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.8620000000000001</v>
+      <c r="M129" s="7">
+        <v>1862</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6086,8 +6102,8 @@
       <c r="L130" s="4">
         <v>7</v>
       </c>
-      <c r="M130" s="5">
-        <v>1.2410000000000001</v>
+      <c r="M130" s="7">
+        <v>1241</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6125,8 +6141,8 @@
       <c r="L131" s="4">
         <v>9</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.359</v>
+      <c r="M131" s="7">
+        <v>1359</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6166,8 +6182,8 @@
       <c r="L132" s="4">
         <v>10</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.41</v>
+      <c r="M132" s="7">
+        <v>1410</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6205,8 +6221,8 @@
       <c r="L133" s="4">
         <v>11</v>
       </c>
-      <c r="M133" s="5">
-        <v>2.0249999999999999</v>
+      <c r="M133" s="7">
+        <v>2025</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6214,29 +6230,29 @@
         <v>12</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.24</v>
-      </c>
-      <c r="D134" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="E134" s="5">
-        <v>10.317</v>
-      </c>
-      <c r="F134" s="5">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="G134" s="5">
-        <v>4.9340000000000002</v>
-      </c>
-      <c r="H134" s="5">
-        <v>13.882999999999999</v>
-      </c>
-      <c r="I134" s="5">
-        <v>13.028</v>
-      </c>
-      <c r="J134" s="5">
-        <v>1.706</v>
+      <c r="C134" s="7">
+        <v>1240</v>
+      </c>
+      <c r="D134" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E134" s="7">
+        <v>10317</v>
+      </c>
+      <c r="F134" s="7">
+        <v>3571</v>
+      </c>
+      <c r="G134" s="7">
+        <v>4934</v>
+      </c>
+      <c r="H134" s="7">
+        <v>13883</v>
+      </c>
+      <c r="I134" s="7">
+        <v>13028</v>
+      </c>
+      <c r="J134" s="7">
+        <v>1706</v>
       </c>
       <c r="K134" s="5">
         <v>513</v>
@@ -6244,15 +6260,15 @@
       <c r="L134" s="5">
         <v>222</v>
       </c>
-      <c r="M134" s="5">
-        <v>50.613999999999997</v>
+      <c r="M134" s="7">
+        <v>50614</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6923,8 +6939,8 @@
       <c r="L151" s="4">
         <v>19</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.0049999999999999</v>
+      <c r="M151" s="7">
+        <v>1005</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -7252,26 +7268,26 @@
         <v>12</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.542</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1.077</v>
-      </c>
-      <c r="E160" s="5">
-        <v>4.6159999999999997</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.5149999999999999</v>
-      </c>
-      <c r="G160" s="5">
-        <v>2.4620000000000002</v>
-      </c>
-      <c r="H160" s="5">
-        <v>3.3260000000000001</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.657</v>
+      <c r="C160" s="7">
+        <v>1542</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1077</v>
+      </c>
+      <c r="E160" s="7">
+        <v>4616</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1515</v>
+      </c>
+      <c r="G160" s="7">
+        <v>2462</v>
+      </c>
+      <c r="H160" s="7">
+        <v>3326</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1657</v>
       </c>
       <c r="J160" s="5">
         <v>118</v>
@@ -7282,8 +7298,18 @@
       <c r="L160" s="5">
         <v>201</v>
       </c>
-      <c r="M160" s="5">
-        <v>16.521000000000001</v>
+      <c r="M160" s="7">
+        <v>16521</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
